--- a/ProjectCharter-EchoEase.xlsx
+++ b/ProjectCharter-EchoEase.xlsx
@@ -8,21 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khoa\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF16485-F4AA-46D4-8D73-74AD494ECEDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F1A35D-6CAA-4AAA-969D-2E1FB7C4BDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="19440" windowHeight="14190" tabRatio="664" firstSheet="3" activeTab="7" xr2:uid="{D307BA28-3551-4384-8CF1-AE058CB07701}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="19440" windowHeight="14190" tabRatio="664" firstSheet="4" activeTab="8" xr2:uid="{D307BA28-3551-4384-8CF1-AE058CB07701}"/>
   </bookViews>
   <sheets>
-    <sheet name="MauForm" sheetId="6" r:id="rId1"/>
-    <sheet name="Tên dự án" sheetId="1" r:id="rId2"/>
-    <sheet name="Người quản lý dự án" sheetId="3" r:id="rId3"/>
-    <sheet name="Muc tiêu dự án" sheetId="4" r:id="rId4"/>
-    <sheet name="Phạm vi dự án" sheetId="5" r:id="rId5"/>
-    <sheet name="Thời gian dự kiến" sheetId="7" r:id="rId6"/>
-    <sheet name="Chi phí" sheetId="8" r:id="rId7"/>
-    <sheet name="Ràng buộc" sheetId="9" r:id="rId8"/>
-    <sheet name="Rủi ro" sheetId="10" r:id="rId9"/>
-    <sheet name="Các bên liên quan" sheetId="11" r:id="rId10"/>
+    <sheet name="Tên dự án" sheetId="1" r:id="rId1"/>
+    <sheet name="Người quản lý dự án" sheetId="3" r:id="rId2"/>
+    <sheet name="Mục tiêu dự án " sheetId="4" r:id="rId3"/>
+    <sheet name="Phạm vi dự án" sheetId="5" r:id="rId4"/>
+    <sheet name="Thời gian dự kiến" sheetId="7" r:id="rId5"/>
+    <sheet name="Chi phí" sheetId="8" r:id="rId6"/>
+    <sheet name="Ràng buộc" sheetId="9" r:id="rId7"/>
+    <sheet name="Rủi ro" sheetId="10" r:id="rId8"/>
+    <sheet name="Các bên liên quan" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="218">
   <si>
     <t xml:space="preserve">Tên dự án </t>
   </si>
@@ -60,12 +59,6 @@
   </si>
   <si>
     <t>Người cập nhật:</t>
-  </si>
-  <si>
-    <t>&lt;Ma số nhân viên&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Họ tên đầy đủ&gt;</t>
   </si>
   <si>
     <t>Mô tả :</t>
@@ -118,9 +111,6 @@
     <t>Mục tiêu</t>
   </si>
   <si>
-    <t>cookie</t>
-  </si>
-  <si>
     <t>Thuộc phạm vi dự án</t>
   </si>
   <si>
@@ -148,9 +138,6 @@
     <t>Đơn vị thời gian</t>
   </si>
   <si>
-    <t>stt</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sự kiện </t>
   </si>
   <si>
@@ -160,49 +147,9 @@
     <t>Chi phí phát triển WEB</t>
   </si>
   <si>
-    <t>291020250916</t>
-  </si>
-  <si>
-    <t>Phân bổ</t>
-  </si>
-  <si>
     <t>Nội dung giải ngân</t>
   </si>
   <si>
-    <t>Web</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thu Thập &amp; xây dựng ngư liệu </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quản lý </t>
-  </si>
-  <si>
-    <t>Vận hành</t>
-  </si>
-  <si>
-    <t>Đơn vị</t>
-  </si>
-  <si>
-    <t>VNĐ</t>
-  </si>
-  <si>
-    <t>Chi phí rủi ro</t>
-  </si>
-  <si>
-    <t>Ràng buộc về tài chính</t>
-  </si>
-  <si>
-    <t>ràng buộc về chính sách 
-&amp; pháp luật</t>
-  </si>
-  <si>
-    <t>chi chú</t>
-  </si>
-  <si>
-    <t>Dự án chịu chi phối của:</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mã </t>
   </si>
   <si>
@@ -242,25 +189,10 @@
     <t>R11</t>
   </si>
   <si>
-    <t>tên</t>
-  </si>
-  <si>
-    <t>Giới thiêu</t>
-  </si>
-  <si>
-    <t>thông tin liên lạc</t>
-  </si>
-  <si>
     <t>Dự án thành công</t>
   </si>
   <si>
     <t>Dự án thất bại</t>
-  </si>
-  <si>
-    <t>tác đông tiêu cực đến dự án</t>
-  </si>
-  <si>
-    <t>Tác động tiêu cực đến dự án</t>
   </si>
   <si>
     <t>EchoEase</t>
@@ -300,13 +232,7 @@
     <t>Cá nhân hóa các bài luyện nghe yêu thích</t>
   </si>
   <si>
-    <t>Tạo phần comment bên dưới mỗi bài nghe để người dùng có thể trao đổi và nêu ra ý kiến.</t>
-  </si>
-  <si>
     <t>Cung cấp tính năng theo dõi tiến trình luyện tập.</t>
-  </si>
-  <si>
-    <t>Sử dụng biểu đồ Gantt</t>
   </si>
   <si>
     <t>Phạm vi EchoEase</t>
@@ -493,9 +419,6 @@
     <t xml:space="preserve">Mở rộng thêm nhiều tính năng </t>
   </si>
   <si>
-    <t>Xây dựng cơ chế thu thập dữ liệu người dùng</t>
-  </si>
-  <si>
     <t>Phase 1</t>
   </si>
   <si>
@@ -697,20 +620,358 @@
     <t>Sử dụng gói hosting rẻ, không chịu được số lượng user đột biến khi viral, website sập.</t>
   </si>
   <si>
-    <t>Chọn gói hosting rẻ, không chịu được số lượng user tăng đột biến khi viral, website sập.</t>
-  </si>
-  <si>
     <t>Sau 1 tuần deploy thì có quá ít user quay lại, UX kém hoặc giá trị chưa rõ ràng.</t>
   </si>
   <si>
     <t>Transcipt có ký tự đặc biệt(dấu câu, viết hoa) bị lỗi font không hiện thị đúng.</t>
+  </si>
+  <si>
+    <t>Database không ghi nhận kịp thời điểm user hoàn thành bài, mất dữ liệu session,..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sử dụng Line Chart </t>
+  </si>
+  <si>
+    <t>Cookie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lưu trữ phiên việc làm tạm thời </t>
+  </si>
+  <si>
+    <t>Thông tin liên lạc</t>
+  </si>
+  <si>
+    <t>Giới thiệu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần Y Khoa </t>
+  </si>
+  <si>
+    <t>Quản lý dự án &amp;
+Dev chính</t>
+  </si>
+  <si>
+    <t>khoa08922@gmail.com</t>
+  </si>
+  <si>
+    <t>Hoàn thành đúng 
+hạn các chức năng Phase 1 &amp; 2;
+Web chạy ổn định không lỗi logic;
+Đạt điểm tốt.</t>
+  </si>
+  <si>
+    <t>Không kịp deadline;
+Web quá nhiều bug (critical); Không bảo vệ được đồ án.</t>
+  </si>
+  <si>
+    <t>Mức độ ảnh hưởng</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cao nhất</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Quyết định tiến độ và chất lượng project.</t>
+    </r>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng Khuê</t>
+  </si>
+  <si>
+    <t>Người đánh giá &amp;
+định hướng</t>
+  </si>
+  <si>
+    <t>hcmusclc@gmail.com</t>
+  </si>
+  <si>
+    <t>Sản phẩm đáp ứng đủ các yêu cầu chuyên môn;
+Tài liệu đầy đủ.</t>
+  </si>
+  <si>
+    <t>Sản phẩm sơ sài, thiếu chức năng cốt lõi;
+Vi phạm quy chế đồ án.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cao</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Quyết định điểm số, mức độ phù hợp dự án.</t>
+    </r>
+  </si>
+  <si>
+    <t>Người dùng</t>
+  </si>
+  <si>
+    <t>Cải thiện được kỹ năng nghe;
+Giao diện dễ dùng;
+Tốc độ tải trang nhanh.</t>
+  </si>
+  <si>
+    <t>Web khó dùng do UX kém;
+Bài nghe chán/không chuẩn;
+Hay bị lỗi khi submit.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Trung bình</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Quyết định tính thực tế của project.</t>
+    </r>
+  </si>
+  <si>
+    <t>Nhà cung cấp (3rd party)</t>
+  </si>
+  <si>
+    <t>Youtube, Hosting, API</t>
+  </si>
+  <si>
+    <t>(Support page)</t>
+  </si>
+  <si>
+    <t>Hệ thống API hoạt 
+động ổn định.</t>
+  </si>
+  <si>
+    <t>Server sập.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thấp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Yếu tố kỹ thuật bên ngoài.</t>
+    </r>
+  </si>
+  <si>
+    <t>Hạ tầng Web(Hosting/Domain)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thu thập &amp; xây dựng ngữ liệu </t>
+  </si>
+  <si>
+    <t>Quản lý &amp; công cụ</t>
+  </si>
+  <si>
+    <t>Vận hành &amp; marketing</t>
+  </si>
+  <si>
+    <t>Chi phí dự phòng(rủi ro)</t>
+  </si>
+  <si>
+    <t>Phân bổ(dự kiến)</t>
+  </si>
+  <si>
+    <t>Mua tên miền
+.com (.net) giá rẻ.
+Hosting dùng Vercel,Heroku,..
+gói free tier.</t>
+  </si>
+  <si>
+    <t>Tự thực hiện thủ
+công(lấy từ Youtube
+,TED Talks).
+Sử dụng tool mã nguồn mở để tải audio/sub.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sử dụng Github, VS
+Code </t>
+  </si>
+  <si>
+    <t>Đăng post về project
+trên các group tiếng
+Anh, mời bạn bè test
+(chi phí cà phê,quà).</t>
+  </si>
+  <si>
+    <t>Dự phòng khi cần
+mua thêm dung lượng
+Database hoặc API key
+nếu vượt hạn mức 
+miễn phí.</t>
+  </si>
+  <si>
+    <t>Tổng cộng</t>
+  </si>
+  <si>
+    <t>Ngân sách tối thiểu để 
+chạy mượt project.</t>
+  </si>
+  <si>
+    <t>Phương án phòng ngừa</t>
+  </si>
+  <si>
+    <t>Xác nhận lại yêu cầu chi tiết với GVHD ngay khi vẽ xong Wireframe.</t>
+  </si>
+  <si>
+    <t>Phase 1 dùng thuật toán so sánh chuỗi đơn giản (Levenshtein Distance), chưa cần AI phức tạp.</t>
+  </si>
+  <si>
+    <t>Sử dụng thư viện HTML5 Audio chuẩn, ưu tiên test kỹ năng trên Chrome và Edge(phổ biến nhất).</t>
+  </si>
+  <si>
+    <t>Sử dụng nguồn TED Talks hoặc VOA Learning English(có sẵn transcript chuẩn và miễn phí).</t>
+  </si>
+  <si>
+    <t>Chỉ chọn các video có giấy phép Creative Commons (CC) hoặc Youtube Audio Library.</t>
+  </si>
+  <si>
+    <t>Đánh Index cho Database(các trường hay tìm kiếm), sử dụng phân trang (Pagination) thay vì load tất cả.</t>
+  </si>
+  <si>
+    <t>Đóng băng Scope (Feature Freeze) sau khi chốt Phase 1. Mọi ý tưởng mới đều chuyển sang Phase 2.</t>
+  </si>
+  <si>
+    <t>Làm Google Form ngắn gọn(dưới 5 câu hỏi), mời bạn bè để test trước để đảm bảo có phản hồi.</t>
+  </si>
+  <si>
+    <t>Cấu hình thuật toán bỏ qua lỗi viết hoa/thường, dấu câu(chỉ check từ vựng chính).</t>
+  </si>
+  <si>
+    <t>Tối ưu dung lượng file(ảnh, js). Sử dụng Cloudflare (CDN) bản miễn phí để giảm tải cho server.</t>
+  </si>
+  <si>
+    <t>Thêm tính năng "Streak"(chuỗi ngày học liên tục) để tạo động lực giữ chân user.</t>
+  </si>
+  <si>
+    <t>Cấu hình toàn bộ Database và Codebase chuẩn UTF-8 (Unicode) ngay từ đầu.</t>
+  </si>
+  <si>
+    <t>Tự động lưu(Auto-save) bài làm vào LocalStorage trình duyệt mỗi 30s hoặc khi user bấm Pause.</t>
+  </si>
+  <si>
+    <t>Ràng buộc Thời gian(Hard Dealine)</t>
+  </si>
+  <si>
+    <t>Ràng buộc Tài chính (Budget)</t>
+  </si>
+  <si>
+    <t>Ràng buộc Công nghệ (Technical)</t>
+  </si>
+  <si>
+    <t>Ràng buộc Chính sách &amp; Pháp luật</t>
+  </si>
+  <si>
+    <t>Chi tiết ràng buộc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngày bảo vệ đồ án/Nộp final: </t>
+  </si>
+  <si>
+    <t>Hoàn thành MVP (Phase 1)
+trước ngày: …</t>
+  </si>
+  <si>
+    <t>Không được phép trễ (nếu trễ coi như rớt đồ án).</t>
+  </si>
+  <si>
+    <t>Tổng chi phí thực thi không vượt quá: 1.000.000 VNĐ</t>
+  </si>
+  <si>
+    <t>Chỉ tiêu cho những thứ cần thiết(Domain/Hosting).</t>
+  </si>
+  <si>
+    <t>Backend: C# (.NET Core)</t>
+  </si>
+  <si>
+    <t>Database:</t>
+  </si>
+  <si>
+    <t>Frontend: HTML/CSS/JS thuần React</t>
+  </si>
+  <si>
+    <t>Môi trường: Phải chạy được trên Web Browser phổ thông.</t>
+  </si>
+  <si>
+    <t>Không vi phạm bản quyền(Audio/Video).</t>
+  </si>
+  <si>
+    <t>Không sao chép code đồ án cũ.</t>
+  </si>
+  <si>
+    <t>Tạo phần comment bên dưới mỗi bài nghe.</t>
+  </si>
+  <si>
+    <t>Người dùng có thể trao đổi và nêu ra ý kiến.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="_([$VND]\ * #,##0_);_([$VND]\ * \(#,##0\);_([$VND]\ * &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="00000"/>
+  </numFmts>
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -797,6 +1058,30 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -824,7 +1109,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1067,39 +1352,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -1109,10 +1361,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1192,12 +1447,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1242,6 +1491,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1251,27 +1509,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1317,32 +1560,88 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="25">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -1446,7 +1745,7 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1459,12 +1758,35 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1478,62 +1800,6 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1840,36 +2106,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8C99BFA1-7339-4BAF-9CD2-5F4B3B93558E}" name="Table3" displayName="Table3" ref="A12:J16" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8C99BFA1-7339-4BAF-9CD2-5F4B3B93558E}" name="Table3" displayName="Table3" ref="A12:J16" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <autoFilter ref="A12:J16" xr:uid="{8C99BFA1-7339-4BAF-9CD2-5F4B3B93558E}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{403E28F8-15AC-4659-B734-679DA4C3607A}" name="STT" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{3A5BBB39-11B0-4713-9560-631FF1399646}" name="Tên PM" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{E7217A72-43D5-46E5-B8DA-573FC2495EE2}" name="Ngày tiếp_x000a_ nhận dự án" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{526B6042-2ECF-4515-AAC6-72545ED14E4E}" name="Chức vụ" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{E3FFA395-9DBC-4373-9B55-51B4C81EC88A}" name="Học vị_x000a_Học Hàm" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{58056848-52E5-462B-ABF5-9563C7738FB4}" name="Thành tích" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{7723EEA0-217A-49B0-B7DC-53CB126436D1}" name="Mail" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{4781AFCA-68AE-4B2B-BDF3-6E0BB6F17DE1}" name="SĐT" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{7A4A88A1-0926-4F19-AA54-01C01D67EA7E}" name="Địa chị liên hệ" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{A85CAE59-66B6-485C-BFC7-02136A105982}" name="Đặc quyền" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{403E28F8-15AC-4659-B734-679DA4C3607A}" name="STT" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{3A5BBB39-11B0-4713-9560-631FF1399646}" name="Tên PM" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{E7217A72-43D5-46E5-B8DA-573FC2495EE2}" name="Ngày tiếp_x000a_ nhận dự án" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{526B6042-2ECF-4515-AAC6-72545ED14E4E}" name="Chức vụ" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{E3FFA395-9DBC-4373-9B55-51B4C81EC88A}" name="Học vị_x000a_Học Hàm" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{58056848-52E5-462B-ABF5-9563C7738FB4}" name="Thành tích" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{7723EEA0-217A-49B0-B7DC-53CB126436D1}" name="Mail" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{4781AFCA-68AE-4B2B-BDF3-6E0BB6F17DE1}" name="SĐT" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{7A4A88A1-0926-4F19-AA54-01C01D67EA7E}" name="Địa chị liên hệ" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{A85CAE59-66B6-485C-BFC7-02136A105982}" name="Đặc quyền" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AF4FD14F-44A8-4C11-B45C-D616CBC0091B}" name="Table2" displayName="Table2" ref="A4:H13" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
-  <autoFilter ref="A4:H13" xr:uid="{AF4FD14F-44A8-4C11-B45C-D616CBC0091B}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{68C658BA-15D1-4D78-81DD-FC17D537989F}" name="stt" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{BC95475C-890B-45F3-BD21-C1C05E08CF22}" name="tên" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{181B062D-DE17-44A6-9EBB-03C77E02C7CF}" name="Giới thiêu" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{916F40C9-2AE3-4D80-98A5-782A33C09990}" name="thông tin liên lạc" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{007AD39E-1F11-4BBA-9DD2-4F3E2D70E5CD}" name="Dự án thành công" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{74B0F394-B72A-43E0-92B6-882C55050277}" name="Dự án thất bại" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{4E4236A1-E018-45CC-B670-B95382597FC8}" name="tác đông tiêu cực đến dự án" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{23E4008B-2CA3-4ECD-8EAA-EC20EF78A320}" name="Tác động tiêu cực đến dự án" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AF4FD14F-44A8-4C11-B45C-D616CBC0091B}" name="Table2" displayName="Table2" ref="A4:G13" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+  <autoFilter ref="A4:G13" xr:uid="{AF4FD14F-44A8-4C11-B45C-D616CBC0091B}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{68C658BA-15D1-4D78-81DD-FC17D537989F}" name="STT" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{BC95475C-890B-45F3-BD21-C1C05E08CF22}" name="Tên" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{181B062D-DE17-44A6-9EBB-03C77E02C7CF}" name="Giới thiệu" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{916F40C9-2AE3-4D80-98A5-782A33C09990}" name="Thông tin liên lạc" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{007AD39E-1F11-4BBA-9DD2-4F3E2D70E5CD}" name="Dự án thành công" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{74B0F394-B72A-43E0-92B6-882C55050277}" name="Dự án thất bại" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{4E4236A1-E018-45CC-B670-B95382597FC8}" name="Mức độ ảnh hưởng" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2171,243 +2436,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17BCF2D3-9CE7-437B-B9F9-392F8632A013}">
-  <dimension ref="A2:C7"/>
-  <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="63">
-        <v>221020251044</v>
-      </c>
-      <c r="C2" s="64"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="64"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="63">
-        <v>0</v>
-      </c>
-      <c r="C7" s="64"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353158EA-1F66-4D72-ADC6-6B814485E2C5}">
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="27.85546875" customWidth="1"/>
-    <col min="8" max="8" width="28.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C2" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" s="42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="44"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="44"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="44"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="44"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="44"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="44"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="44"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="44"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="46"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B9DE2D4-2732-4A9A-8D17-82EAF90D3DC4}">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -2434,30 +2462,30 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
+      <c r="B3" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2477,12 +2505,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D42D6601-5453-4131-B45F-C5E2E80E97ED}">
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2510,38 +2538,38 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>73</v>
+        <v>9</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>74</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="48"/>
+        <v>10</v>
+      </c>
+      <c r="B4" s="42"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="48"/>
+        <v>11</v>
+      </c>
+      <c r="B5" s="42"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="47" t="s">
-        <v>73</v>
+      <c r="B6" s="41" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2575,34 +2603,34 @@
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="14" t="s">
+      <c r="H12" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="J12" s="22" t="s">
         <v>16</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="22" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2649,7 +2677,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -2665,8 +2693,8 @@
       <c r="A17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B17" t="s">
-        <v>73</v>
+      <c r="B17" s="44" t="s">
+        <v>51</v>
       </c>
       <c r="J17" s="7"/>
     </row>
@@ -2677,7 +2705,7 @@
       <c r="B18" s="10">
         <v>0.1</v>
       </c>
-      <c r="C18" s="11"/>
+      <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
@@ -2694,12 +2722,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E867C21-F457-409E-966C-5B1B542E8687}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:E6"/>
+    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2720,108 +2748,110 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="68" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
+        <v>17</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
       <c r="F3" s="26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="24">
         <v>1</v>
       </c>
-      <c r="B4" s="70" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
+      <c r="B4" s="99" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
       <c r="F4" s="25" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24">
         <v>2</v>
       </c>
-      <c r="B5" s="72" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="15" t="s">
-        <v>23</v>
+      <c r="B5" s="101" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="83" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="24">
         <v>3</v>
       </c>
-      <c r="B6" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
+      <c r="B6" s="101" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
       <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="24">
         <v>4</v>
       </c>
-      <c r="B7" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
+      <c r="B7" s="101" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
       <c r="F7" s="15" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24">
         <v>5</v>
       </c>
-      <c r="B8" s="66" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="15"/>
+      <c r="B8" s="101" t="s">
+        <v>216</v>
+      </c>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="83" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="50">
+      <c r="B12" s="44">
         <v>0.1</v>
       </c>
     </row>
@@ -2840,11 +2870,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC94F178-3F92-412B-BDF6-F83E1112F3DE}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -2864,152 +2894,152 @@
         <v>1</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="C1" s="28"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
+      <c r="A2" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
-      <c r="C3" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="49" t="s">
+      <c r="C3" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="74" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="74"/>
+      <c r="F3" s="66"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>87</v>
+      <c r="A4" s="65" t="s">
+        <v>63</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="77" t="s">
-        <v>91</v>
+        <v>62</v>
+      </c>
+      <c r="D4" s="69" t="s">
+        <v>67</v>
       </c>
       <c r="E4" s="33"/>
       <c r="F4" s="32"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="30" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="78"/>
+        <v>69</v>
+      </c>
+      <c r="D5" s="70"/>
       <c r="E5" s="33"/>
       <c r="F5" s="32"/>
     </row>
     <row r="6" spans="1:7" ht="210" x14ac:dyDescent="0.25">
-      <c r="A6" s="73"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="30" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="79"/>
+        <v>64</v>
+      </c>
+      <c r="D6" s="71"/>
       <c r="E6" s="32"/>
       <c r="F6" s="32"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="73" t="s">
-        <v>90</v>
+      <c r="A7" s="65" t="s">
+        <v>66</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="77" t="s">
-        <v>92</v>
+        <v>65</v>
+      </c>
+      <c r="D7" s="69" t="s">
+        <v>68</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="32"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="73"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="29" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="80"/>
+        <v>69</v>
+      </c>
+      <c r="D8" s="72"/>
       <c r="E8" s="34"/>
       <c r="F8" s="31"/>
     </row>
     <row r="9" spans="1:7" ht="165" x14ac:dyDescent="0.25">
-      <c r="A9" s="73"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="29" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="81"/>
+        <v>70</v>
+      </c>
+      <c r="D9" s="73"/>
       <c r="E9" s="31"/>
       <c r="F9" s="31"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="73" t="s">
-        <v>95</v>
+      <c r="A10" s="65" t="s">
+        <v>71</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="77" t="s">
-        <v>98</v>
+        <v>72</v>
+      </c>
+      <c r="D10" s="69" t="s">
+        <v>74</v>
       </c>
       <c r="E10" s="31"/>
       <c r="F10" s="31"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="73"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="78"/>
+        <v>24</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="70"/>
       <c r="E11" s="31"/>
       <c r="F11" s="31"/>
     </row>
     <row r="12" spans="1:7" ht="180" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
+      <c r="A12" s="65"/>
       <c r="B12" s="29" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="79"/>
+        <v>73</v>
+      </c>
+      <c r="D12" s="71"/>
       <c r="E12" s="31"/>
       <c r="F12" s="31"/>
     </row>
@@ -3020,8 +3050,8 @@
       <c r="A14" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="52" t="s">
-        <v>73</v>
+      <c r="B14" s="46" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3048,12 +3078,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DDB404C-5A9C-417A-97E4-033B76745464}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView topLeftCell="C8" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3070,7 +3100,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>4</v>
@@ -3085,404 +3115,404 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
+      <c r="A3" s="77" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="B5" s="15">
         <v>7</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="B6" s="15">
         <v>4</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="B7" s="15">
         <v>4</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D10" s="87" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" s="87"/>
+      <c r="D10" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="79"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D11" s="86" t="s">
-        <v>116</v>
-      </c>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
+      <c r="D11" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D12" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="50" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="47">
+        <v>1</v>
+      </c>
+      <c r="E13" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="49">
+        <v>10</v>
+      </c>
+      <c r="G13" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="80"/>
+      <c r="D14" s="47">
+        <v>2</v>
+      </c>
+      <c r="E14" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="49">
+        <v>5</v>
+      </c>
+      <c r="G14" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="80"/>
+      <c r="D15" s="47">
+        <v>3</v>
+      </c>
+      <c r="E15" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="49">
         <v>8</v>
       </c>
-      <c r="E12" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="18" t="s">
+      <c r="G15" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="56" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="88" t="s">
+      <c r="H15" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="80"/>
+      <c r="D16" s="47">
+        <v>4</v>
+      </c>
+      <c r="E16" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="49">
+        <v>7</v>
+      </c>
+      <c r="G16" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="80"/>
+      <c r="D17" s="47">
+        <v>5</v>
+      </c>
+      <c r="E17" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="49">
+        <v>3</v>
+      </c>
+      <c r="G17" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="80"/>
+      <c r="D18" s="47">
+        <v>6</v>
+      </c>
+      <c r="E18" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="49">
+        <v>4</v>
+      </c>
+      <c r="G18" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="80"/>
+      <c r="D19" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" s="76"/>
+      <c r="F19" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="48"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C21" s="48"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C22" s="80" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="47">
+        <v>8</v>
+      </c>
+      <c r="E22" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="49">
+        <v>5</v>
+      </c>
+      <c r="G22" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="80"/>
+      <c r="D23" s="47">
+        <v>9</v>
+      </c>
+      <c r="E23" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="49">
+        <v>4</v>
+      </c>
+      <c r="G23" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C24" s="80"/>
+      <c r="D24" s="47">
+        <v>10</v>
+      </c>
+      <c r="E24" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="49">
+        <v>5</v>
+      </c>
+      <c r="G24" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C25" s="80"/>
+      <c r="D25" s="47">
+        <v>11</v>
+      </c>
+      <c r="E25" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" s="49">
+        <v>3</v>
+      </c>
+      <c r="G25" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C26" s="80"/>
+      <c r="D26" s="47">
+        <v>12</v>
+      </c>
+      <c r="E26" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="53">
-        <v>1</v>
-      </c>
-      <c r="E13" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" s="55">
-        <v>10</v>
-      </c>
-      <c r="G13" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="88"/>
-      <c r="D14" s="53">
-        <v>2</v>
-      </c>
-      <c r="E14" s="53" t="s">
+      <c r="F26" s="51">
+        <v>3</v>
+      </c>
+      <c r="G26" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="F14" s="55">
-        <v>5</v>
-      </c>
-      <c r="G14" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="88"/>
-      <c r="D15" s="53">
-        <v>3</v>
-      </c>
-      <c r="E15" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="F15" s="55">
-        <v>8</v>
-      </c>
-      <c r="G15" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="88"/>
-      <c r="D16" s="53">
-        <v>4</v>
-      </c>
-      <c r="E16" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="F16" s="55">
-        <v>7</v>
-      </c>
-      <c r="G16" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="88"/>
-      <c r="D17" s="53">
-        <v>5</v>
-      </c>
-      <c r="E17" s="53" t="s">
-        <v>117</v>
-      </c>
-      <c r="F17" s="55">
-        <v>3</v>
-      </c>
-      <c r="G17" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="88"/>
-      <c r="D18" s="53">
-        <v>6</v>
-      </c>
-      <c r="E18" s="53" t="s">
-        <v>111</v>
-      </c>
-      <c r="F18" s="55">
-        <v>4</v>
-      </c>
-      <c r="G18" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="88"/>
-      <c r="D19" s="83" t="s">
-        <v>136</v>
-      </c>
-      <c r="E19" s="84"/>
-      <c r="F19" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="G19" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="54"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C21" s="54"/>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C22" s="88" t="s">
-        <v>101</v>
-      </c>
-      <c r="D22" s="53">
-        <v>8</v>
-      </c>
-      <c r="E22" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="F22" s="55">
-        <v>5</v>
-      </c>
-      <c r="G22" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C23" s="88"/>
-      <c r="D23" s="53">
-        <v>9</v>
-      </c>
-      <c r="E23" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="F23" s="55">
-        <v>4</v>
-      </c>
-      <c r="G23" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C24" s="88"/>
-      <c r="D24" s="53">
-        <v>10</v>
-      </c>
-      <c r="E24" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="F24" s="55">
-        <v>5</v>
-      </c>
-      <c r="G24" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C25" s="88"/>
-      <c r="D25" s="53">
-        <v>11</v>
-      </c>
-      <c r="E25" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="F25" s="55">
-        <v>3</v>
-      </c>
-      <c r="G25" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C26" s="88"/>
-      <c r="D26" s="53">
-        <v>12</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="F26" s="57">
-        <v>3</v>
-      </c>
-      <c r="G26" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>130</v>
-      </c>
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C29" s="82" t="s">
-        <v>102</v>
+      <c r="C29" s="74" t="s">
+        <v>77</v>
       </c>
       <c r="D29" s="15">
         <v>13</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="F29" s="57">
+        <v>106</v>
+      </c>
+      <c r="F29" s="51">
         <v>6</v>
       </c>
-      <c r="G29" s="57" t="s">
-        <v>35</v>
+      <c r="G29" s="51" t="s">
+        <v>31</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C30" s="82"/>
+      <c r="C30" s="74"/>
       <c r="D30" s="15">
         <v>14</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="F30" s="57">
+        <v>107</v>
+      </c>
+      <c r="F30" s="51">
         <v>7</v>
       </c>
-      <c r="G30" s="57" t="s">
-        <v>35</v>
+      <c r="G30" s="51" t="s">
+        <v>31</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C31" s="82"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="15">
         <v>15</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="F31" s="57">
+        <v>108</v>
+      </c>
+      <c r="F31" s="51">
         <v>4</v>
       </c>
-      <c r="G31" s="57" t="s">
-        <v>35</v>
+      <c r="G31" s="51" t="s">
+        <v>31</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C32" s="82"/>
+      <c r="C32" s="74"/>
       <c r="D32" s="15">
         <v>16</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="F32" s="57">
+        <v>109</v>
+      </c>
+      <c r="F32" s="51">
         <v>3</v>
       </c>
-      <c r="G32" s="57" t="s">
-        <v>35</v>
+      <c r="G32" s="51" t="s">
+        <v>31</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C33" s="82"/>
-      <c r="D33" s="63" t="s">
-        <v>135</v>
-      </c>
-      <c r="E33" s="64"/>
-      <c r="F33" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="G33" s="55" t="s">
-        <v>113</v>
+      <c r="C33" s="74"/>
+      <c r="D33" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" s="61"/>
+      <c r="F33" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="G33" s="49" t="s">
+        <v>88</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3501,20 +3531,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{856BE295-25AF-4A34-B957-96EA9B03EEB2}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
     <col min="5" max="5" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" customWidth="1"/>
   </cols>
@@ -3523,14 +3553,14 @@
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="59" t="s">
-        <v>85</v>
+      <c r="B1" s="53" t="s">
+        <v>61</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -3542,104 +3572,118 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
+      <c r="A3" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>39</v>
-      </c>
       <c r="C4" s="18" t="s">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="E4" s="36">
         <f>SUM(C5:C8)</f>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="57">
+        <v>1</v>
+      </c>
+      <c r="B5" s="83" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="93">
+        <v>300000</v>
+      </c>
+      <c r="D5" s="91" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="57">
+        <v>2</v>
+      </c>
+      <c r="B6" s="83" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="93">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
-        <v>1</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="57" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
-        <v>2</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="57" t="s">
-        <v>113</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+      <c r="D6" s="82" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="57">
         <v>3</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="57" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="B7" s="83" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="93">
+        <v>0</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="57">
         <v>4</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="57" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+      <c r="B8" s="83" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" s="93">
+        <v>200000</v>
+      </c>
+      <c r="D8" s="82" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="57">
         <v>5</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="57" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>45</v>
+      <c r="B9" s="83" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="93">
+        <v>500000</v>
+      </c>
+      <c r="D9" s="82" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="57">
+        <v>6</v>
+      </c>
+      <c r="B10" s="83" t="s">
+        <v>184</v>
+      </c>
+      <c r="C10" s="93">
+        <v>600000</v>
+      </c>
+      <c r="D10" s="90" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -3650,99 +3694,159 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F89EA9-8738-47D4-99D7-37696A80835F}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="B1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="98">
+        <v>220330102005</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="15"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C2" s="18" t="s">
+      <c r="E1" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="15">
+      <c r="E2" s="15">
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="89" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="90"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="91"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="92" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="90"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="91"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="97" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" s="97" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="94" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" s="69" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="94"/>
+      <c r="B6" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" s="73"/>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="82" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="82" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="95" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="95"/>
+      <c r="B9" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="95"/>
+      <c r="B10" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="95"/>
+      <c r="B11" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="96"/>
+      <c r="B13" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>88</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
+  <mergeCells count="4">
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0299F76-035D-4922-9737-293AF6D18712}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3750,180 +3854,453 @@
     <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.85546875" customWidth="1"/>
     <col min="3" max="3" width="33.5703125" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C2" s="18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="69" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
-        <v>53</v>
+        <v>19</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="69" x14ac:dyDescent="0.25">
+      <c r="A6" s="54" t="s">
+        <v>36</v>
       </c>
       <c r="B6" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="69" x14ac:dyDescent="0.25">
+      <c r="A7" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="69" x14ac:dyDescent="0.25">
+      <c r="A8" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="69" x14ac:dyDescent="0.25">
+      <c r="A9" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="69" x14ac:dyDescent="0.25">
+      <c r="A10" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="86.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="69" x14ac:dyDescent="0.25">
+      <c r="A12" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="69" x14ac:dyDescent="0.25">
+      <c r="A13" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="69" x14ac:dyDescent="0.25">
+      <c r="A14" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="69" x14ac:dyDescent="0.25">
+      <c r="A15" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="69" x14ac:dyDescent="0.25">
+      <c r="A16" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="69" x14ac:dyDescent="0.3">
+      <c r="A17" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="39" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="69" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="39" t="s">
+      <c r="D17" s="39" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="C7" s="40" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="60" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="69" x14ac:dyDescent="0.25">
-      <c r="A12" s="60" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="60" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="62" t="s">
-        <v>152</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="61" t="s">
-        <v>155</v>
-      </c>
-      <c r="B17" s="62" t="s">
-        <v>153</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="B18" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>169</v>
+      <c r="D18" s="39" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353158EA-1F66-4D72-ADC6-6B814485E2C5}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="81">
+        <v>1</v>
+      </c>
+      <c r="B5" s="85" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="87" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" s="82" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="82" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" s="82" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="81">
+        <v>2</v>
+      </c>
+      <c r="B6" s="85" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="86" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6" s="87" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6" s="82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="G6" s="91" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="81">
+        <v>3</v>
+      </c>
+      <c r="B7" s="85" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="85" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="85" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="82" t="s">
+        <v>164</v>
+      </c>
+      <c r="F7" s="92" t="s">
+        <v>165</v>
+      </c>
+      <c r="G7" s="91" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="81">
+        <v>4</v>
+      </c>
+      <c r="B8" s="85" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="88" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" s="85" t="s">
+        <v>169</v>
+      </c>
+      <c r="E8" s="82" t="s">
+        <v>170</v>
+      </c>
+      <c r="F8" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="81">
+        <v>5</v>
+      </c>
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="81">
+        <v>6</v>
+      </c>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="81">
+        <v>7</v>
+      </c>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="81">
+        <v>8</v>
+      </c>
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="81">
+        <v>9</v>
+      </c>
+      <c r="B13" s="89"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{7222ACB5-9C76-4AD8-9F70-D76A77496E01}"/>
+    <hyperlink ref="D6" r:id="rId2" xr:uid="{68FB45CA-0C82-4289-A15E-0E7510B21642}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>